--- a/Agenda academica.xlsx
+++ b/Agenda academica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amiju\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amiju\OneDrive\Documentos\Agenda academica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1C6EE6-3F6D-4838-8F6D-21F68E101D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3886965-3238-4EE0-A186-2E4549DB0934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69EA4FA2-5A62-447C-867D-A70DCC23CC2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{69EA4FA2-5A62-447C-867D-A70DCC23CC2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="28">
   <si>
     <t>6:00 - 6:50</t>
   </si>
@@ -222,13 +222,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,26 +257,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86A4933-60A6-41B5-AC7F-F674514FC59B}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,31 +592,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="8">
+      <c r="B1" s="5">
         <v>44970</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="5">
         <v>44971</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="5">
         <v>44972</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="5">
         <v>44973</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="5">
         <v>44974</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="5">
         <v>44975</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="5">
         <v>44976</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="9"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -625,11 +624,11 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2"/>
@@ -641,9 +640,9 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -652,15 +651,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="2"/>
@@ -670,9 +669,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -681,21 +680,23 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="13" t="s">
-        <v>21</v>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -703,27 +704,27 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -732,12 +733,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -745,37 +746,39 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -786,10 +789,10 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -808,19 +811,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -828,10 +831,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
@@ -840,7 +843,9 @@
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -852,8 +857,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -865,7 +872,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -875,12 +882,11 @@
       <c r="A19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="23">
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B10:B11"/>
@@ -895,9 +901,15 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -906,6 +918,335 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5">
+        <v>44977</v>
+      </c>
+      <c r="C1" s="5">
+        <v>44978</v>
+      </c>
+      <c r="D1" s="5">
+        <v>44979</v>
+      </c>
+      <c r="E1" s="5">
+        <v>44980</v>
+      </c>
+      <c r="F1" s="5">
+        <v>44981</v>
+      </c>
+      <c r="G1" s="5">
+        <v>44982</v>
+      </c>
+      <c r="H1" s="5">
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67B33C1-403F-4F18-BF5B-CBE49D0A075C}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -921,26 +1262,26 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="8">
-        <v>44977</v>
-      </c>
-      <c r="C1" s="8">
-        <v>44978</v>
-      </c>
-      <c r="D1" s="8">
-        <v>44979</v>
-      </c>
-      <c r="E1" s="8">
-        <v>44980</v>
-      </c>
-      <c r="F1" s="8">
-        <v>44981</v>
-      </c>
-      <c r="G1" s="8">
-        <v>44982</v>
-      </c>
-      <c r="H1" s="8">
-        <v>44983</v>
+      <c r="B1" s="5">
+        <v>44984</v>
+      </c>
+      <c r="C1" s="5">
+        <v>44985</v>
+      </c>
+      <c r="D1" s="5">
+        <v>44986</v>
+      </c>
+      <c r="E1" s="5">
+        <v>44987</v>
+      </c>
+      <c r="F1" s="5">
+        <v>44988</v>
+      </c>
+      <c r="G1" s="5">
+        <v>44989</v>
+      </c>
+      <c r="H1" s="5">
+        <v>44990</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -949,11 +1290,11 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2"/>
@@ -965,9 +1306,9 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -976,15 +1317,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="2"/>
@@ -994,9 +1335,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1005,21 +1346,21 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1027,27 +1368,27 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -1056,12 +1397,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1069,22 +1410,22 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="2"/>
@@ -1093,11 +1434,11 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
@@ -1110,7 +1451,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="2"/>
@@ -1132,19 +1473,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1152,10 +1493,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
@@ -1197,6 +1538,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B10:B11"/>
@@ -1209,333 +1557,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67B33C1-403F-4F18-BF5B-CBE49D0A075C}">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="8">
-        <v>44984</v>
-      </c>
-      <c r="C1" s="8">
-        <v>44985</v>
-      </c>
-      <c r="D1" s="8">
-        <v>44986</v>
-      </c>
-      <c r="E1" s="8">
-        <v>44987</v>
-      </c>
-      <c r="F1" s="8">
-        <v>44988</v>
-      </c>
-      <c r="G1" s="8">
-        <v>44989</v>
-      </c>
-      <c r="H1" s="8">
-        <v>44990</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1561,25 +1582,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="8">
+      <c r="B1" s="5">
         <v>44991</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="5">
         <v>44992</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="5">
         <v>44993</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="5">
         <v>44994</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="5">
         <v>44995</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="5">
         <v>44996</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="5">
         <v>44997</v>
       </c>
     </row>
@@ -1589,11 +1610,11 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2"/>
@@ -1605,9 +1626,9 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -1616,15 +1637,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="2"/>
@@ -1634,9 +1655,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1645,21 +1666,21 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1667,12 +1688,12 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1680,14 +1701,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -1696,12 +1717,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1709,22 +1730,22 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="2"/>
@@ -1733,11 +1754,11 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
@@ -1750,7 +1771,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="2"/>
@@ -1772,19 +1793,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1792,10 +1813,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
@@ -1837,6 +1858,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B10:B11"/>
@@ -1849,13 +1877,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
